--- a/GroceryApplication/src/test/resources/Testdata.xlsx
+++ b/GroceryApplication/src/test/resources/Testdata.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{393B9258-F542-4ED9-91FE-39E48D59F085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C16632FA-B387-46DC-BCBF-D79D59C429EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C3EB9434-84FD-4934-9E67-1D47B57AEDB5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{C3EB9434-84FD-4934-9E67-1D47B57AEDB5}"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
     <sheet name="AdminUser" sheetId="2" r:id="rId2"/>
+    <sheet name="contact" sheetId="3" r:id="rId3"/>
+    <sheet name="footer" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K17"/>
+  <oleSize ref="A1:K8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>username</t>
   </si>
@@ -49,16 +51,36 @@
   </si>
   <si>
     <t>obqpsswrd</t>
+  </si>
+  <si>
+    <t>xy333@gmail.com</t>
+  </si>
+  <si>
+    <t>kochi</t>
+  </si>
+  <si>
+    <t>kerala</t>
+  </si>
+  <si>
+    <t>dgh@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,13 +103,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -457,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420BF6F7-203A-4212-9B56-5E4085075BBB}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -482,4 +507,82 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F992E0A3-6FCB-4AA1-A85B-87B0FCEBD12E}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>9999999990</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{467FAF0F-46F2-4312-B580-73CBD68E6E67}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D54C9DD-4AFC-488D-B170-250C5BE72D9E}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1">
+        <v>12538273877</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{4903F3AD-BF57-48FD-BAD9-043083DD96ED}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>